--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>644503.8250276912</v>
+        <v>649489.9704557367</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13167287.16146241</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3809475.954677903</v>
+        <v>2610015.581521715</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7228947.856572334</v>
+        <v>7741987.377597327</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +664,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42.70025017879222</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>92.38090300811142</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -820,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>124.2290557831226</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -899,10 +901,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>76.45328601277687</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>247.7739114364233</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1139,13 +1141,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>419.2639589753614</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>380.1903224726837</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1193,13 +1195,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>265.3439815931928</v>
+        <v>156.3950745845505</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1370,25 +1372,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>180.8114381804399</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>88.65855806375382</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1430,13 +1432,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
-        <v>265.3439815931931</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1610,16 +1612,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>383.9710959809307</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>100.8704097073306</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1853,16 +1855,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>289.5361878481296</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2014,13 +2016,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>4.136508108166636</v>
+        <v>15.69943009345852</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2242,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>200.5888862908064</v>
       </c>
       <c r="U22" t="n">
-        <v>92.01098438110691</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>244.3275881150121</v>
       </c>
       <c r="X25" t="n">
-        <v>134.0373440725195</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>156.3950745845505</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>76.45668180761371</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>123.0673923170415</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>11.12043047005107</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3676,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>123.9086344760398</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3740,10 +3742,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>109.5049367443083</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3758,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>39.03815655278349</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>140.6430253300368</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3992,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>277.2542722577784</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>47.59708018839049</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>43.75630513230266</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.495588181379</v>
+        <v>894.6915758509472</v>
       </c>
       <c r="C2" t="n">
-        <v>802.5948581946789</v>
+        <v>467.7908458642473</v>
       </c>
       <c r="D2" t="n">
-        <v>802.5948581946789</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E2" t="n">
-        <v>802.5948581946789</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F2" t="n">
-        <v>759.463292357515</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G2" t="n">
-        <v>355.1242299469637</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>419.859310237894</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>1128.40047157275</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L2" t="n">
-        <v>1328.153913498309</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M2" t="n">
-        <v>1328.153913498309</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>2036.695074833165</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="O2" t="n">
-        <v>2745.236236168022</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2745.236236168022</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2745.236236168022</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2862.792571049924</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="W2" t="n">
-        <v>2466.401221350271</v>
+        <v>2131.59720901984</v>
       </c>
       <c r="X2" t="n">
-        <v>2054.681222518018</v>
+        <v>1719.877210187587</v>
       </c>
       <c r="Y2" t="n">
-        <v>1649.343952472909</v>
+        <v>1314.539940142477</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>624.3793424524537</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>506.8734389699584</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>403.0334804852435</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>298.3315467581807</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>204.6857164410849</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>110.6319446586889</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>57.25585142099849</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>64.70249438291033</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>336.3999836625014</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="K3" t="n">
-        <v>926.884910230841</v>
+        <v>966.8891568663047</v>
       </c>
       <c r="L3" t="n">
-        <v>1635.426071565697</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="M3" t="n">
-        <v>1635.426071565697</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.426071565697</v>
+        <v>1210.100240615159</v>
       </c>
       <c r="O3" t="n">
-        <v>1635.426071565697</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="P3" t="n">
-        <v>1865.943482001508</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="Q3" t="n">
-        <v>1865.943482001508</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R3" t="n">
-        <v>1865.943482001508</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1784.619234562763</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1642.739298860441</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1457.971102780078</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1252.997963919344</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1056.476586752561</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>892.999240519224</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>753.3063518725164</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>896.8721371936657</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>724.8995740725817</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>561.5828011993524</v>
+        <v>313.77838827152</v>
       </c>
       <c r="E4" t="n">
-        <v>395.3745953522059</v>
+        <v>313.77838827152</v>
       </c>
       <c r="F4" t="n">
-        <v>223.5128211267663</v>
+        <v>313.77838827152</v>
       </c>
       <c r="G4" t="n">
-        <v>57.25585142099849</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2237.668878834127</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>2112.508641989642</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1830.797174597671</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1555.944770770184</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1313.380874215989</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.038105905731</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.454312693436</v>
+        <v>1399.725618125737</v>
       </c>
       <c r="C5" t="n">
-        <v>767.5535827067365</v>
+        <v>972.8248881390371</v>
       </c>
       <c r="D5" t="n">
-        <v>767.5535827067365</v>
+        <v>895.5993467119897</v>
       </c>
       <c r="E5" t="n">
-        <v>767.5535827067365</v>
+        <v>469.6224068598473</v>
       </c>
       <c r="F5" t="n">
-        <v>342.4294008961367</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G5" t="n">
-        <v>342.4294008961367</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>92.15272267752728</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>419.859310237894</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>737.1690870453554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1445.710248380212</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M5" t="n">
-        <v>2154.251409715068</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>2154.251409715068</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O5" t="n">
-        <v>2862.792571049924</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2862.792571049924</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2641.867000094558</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2383.51209069097</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>2026.022675817219</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>2026.022675817219</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1614.302676984966</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y5" t="n">
-        <v>1614.302676984966</v>
+        <v>1819.573982417267</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624.3793424524537</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>506.8734389699584</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>403.0334804852435</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>298.3315467581807</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>204.6857164410849</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>110.6319446586889</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>57.25585142099849</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>57.25585142099849</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>448.8611593317958</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N6" t="n">
-        <v>1157.402320666652</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1865.943482001508</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1865.943482001508</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1865.943482001508</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1784.619234562763</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1642.739298860441</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1457.971102780078</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1252.997963919344</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1056.476586752561</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>892.999240519224</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>753.3063518725164</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1140.436973945235</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>968.4644108241513</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>805.147637950922</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>638.9394321037755</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>467.077657878336</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="G7" t="n">
-        <v>300.8206881725681</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="H7" t="n">
-        <v>157.0244196807225</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="I7" t="n">
-        <v>57.25585142099849</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>114.7471796451565</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>341.2747808509937</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>695.9641021454145</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1087.149897115665</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1464.641407991701</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1820.069536671464</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2110.668748593365</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2237.668878834127</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2237.668878834127</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2237.668878834127</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>2237.668878834127</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>2237.668878834127</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>2074.362011349241</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1799.509607521754</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1556.945710967559</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1330.602942657301</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2142.580952645727</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C8" t="n">
-        <v>1715.680222659027</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D8" t="n">
-        <v>1292.387601844027</v>
+        <v>935.8323272766909</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4106619918849</v>
+        <v>512.3333788167298</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2864801812851</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I8" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>419.859310237894</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K8" t="n">
-        <v>1128.40047157275</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L8" t="n">
-        <v>1445.97213055714</v>
+        <v>1016.834244625407</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.97213055714</v>
+        <v>2021.120346044465</v>
       </c>
       <c r="N8" t="n">
-        <v>1445.97213055714</v>
+        <v>2997.371404531166</v>
       </c>
       <c r="O8" t="n">
-        <v>2154.513291891997</v>
+        <v>3842.516054681978</v>
       </c>
       <c r="P8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R8" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>2758.425276923065</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T8" t="n">
-        <v>2758.425276923065</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U8" t="n">
-        <v>2500.070367519477</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.580952645727</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.580952645727</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X8" t="n">
-        <v>2142.580952645727</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y8" t="n">
-        <v>2142.580952645727</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J9" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K9" t="n">
-        <v>647.7407779893381</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L9" t="n">
-        <v>1356.281939324194</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="M9" t="n">
-        <v>1865.943482001508</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="N9" t="n">
-        <v>1865.943482001508</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="O9" t="n">
-        <v>1865.943482001508</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1140.436973945235</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C10" t="n">
-        <v>968.4644108241513</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D10" t="n">
-        <v>805.147637950922</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E10" t="n">
-        <v>638.9394321037755</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F10" t="n">
-        <v>467.077657878336</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G10" t="n">
-        <v>300.8206881725681</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0244196807225</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I10" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2067.533831353262</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>2067.533831353262</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U10" t="n">
-        <v>2067.533831353262</v>
+        <v>1987.437775919562</v>
       </c>
       <c r="V10" t="n">
-        <v>2067.533831353262</v>
+        <v>1987.437775919562</v>
       </c>
       <c r="W10" t="n">
-        <v>1799.509607521754</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X10" t="n">
-        <v>1556.945710967559</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y10" t="n">
-        <v>1330.602942657301</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1090.087018566577</v>
+        <v>1800.838873150952</v>
       </c>
       <c r="C11" t="n">
-        <v>663.1862885798769</v>
+        <v>1800.838873150952</v>
       </c>
       <c r="D11" t="n">
-        <v>239.8936677648771</v>
+        <v>1377.546252335952</v>
       </c>
       <c r="E11" t="n">
-        <v>239.8936677648771</v>
+        <v>951.56931248381</v>
       </c>
       <c r="F11" t="n">
-        <v>57.25585142099849</v>
+        <v>526.4451306732102</v>
       </c>
       <c r="G11" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H11" t="n">
-        <v>57.25585142099849</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I11" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>419.859310237894</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K11" t="n">
-        <v>419.859310237894</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L11" t="n">
-        <v>989.6247688760286</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M11" t="n">
-        <v>1698.165930210885</v>
+        <v>2539.064141668987</v>
       </c>
       <c r="N11" t="n">
-        <v>2406.707091545741</v>
+        <v>3515.315200155688</v>
       </c>
       <c r="O11" t="n">
-        <v>2406.707091545741</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P11" t="n">
-        <v>2406.707091545741</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R11" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>2758.425276923065</v>
+        <v>4270.905751252203</v>
       </c>
       <c r="T11" t="n">
-        <v>2537.499705967698</v>
+        <v>4049.980180296836</v>
       </c>
       <c r="U11" t="n">
-        <v>2279.14479656411</v>
+        <v>3791.625270893248</v>
       </c>
       <c r="V11" t="n">
-        <v>1921.655381690359</v>
+        <v>3434.135856019498</v>
       </c>
       <c r="W11" t="n">
-        <v>1921.655381690359</v>
+        <v>3037.744506319844</v>
       </c>
       <c r="X11" t="n">
-        <v>1509.935382858107</v>
+        <v>2626.024507487592</v>
       </c>
       <c r="Y11" t="n">
-        <v>1509.935382858107</v>
+        <v>2220.687237442482</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K12" t="n">
-        <v>57.25585142099849</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L12" t="n">
-        <v>57.25585142099849</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="M12" t="n">
-        <v>448.8611593317958</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="N12" t="n">
-        <v>1157.402320666652</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1765.560666161033</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C13" t="n">
-        <v>1593.588103039949</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D13" t="n">
-        <v>1430.27133016672</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E13" t="n">
-        <v>1264.063124319573</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F13" t="n">
-        <v>1092.201350094133</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G13" t="n">
-        <v>925.9443803883656</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H13" t="n">
-        <v>782.14811189652</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I13" t="n">
-        <v>682.379543636796</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
-        <v>739.870871860954</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>966.3984730667912</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>1321.087794361212</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1712.273589331463</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>2089.765100207499</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>2445.193228887262</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2735.792440809163</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2862.792571049924</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2862.792571049924</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.657523569059</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T13" t="n">
-        <v>2692.657523569059</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U13" t="n">
-        <v>2692.657523569059</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V13" t="n">
-        <v>2692.657523569059</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W13" t="n">
-        <v>2424.633299737551</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X13" t="n">
-        <v>2182.069403183356</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y13" t="n">
-        <v>1955.726634873098</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>872.0061733076284</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="C14" t="n">
-        <v>445.1054433209285</v>
+        <v>1463.492242218549</v>
       </c>
       <c r="D14" t="n">
-        <v>57.25585142099849</v>
+        <v>1040.19962140355</v>
       </c>
       <c r="E14" t="n">
-        <v>57.25585142099849</v>
+        <v>614.2226815514072</v>
       </c>
       <c r="F14" t="n">
-        <v>57.25585142099849</v>
+        <v>189.0984997408074</v>
       </c>
       <c r="G14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K14" t="n">
-        <v>765.7970127558548</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L14" t="n">
-        <v>872.3303161710544</v>
+        <v>1016.834244625407</v>
       </c>
       <c r="M14" t="n">
-        <v>872.3303161710544</v>
+        <v>2021.120346044465</v>
       </c>
       <c r="N14" t="n">
-        <v>872.3303161710544</v>
+        <v>2997.371404531166</v>
       </c>
       <c r="O14" t="n">
-        <v>1580.871477505911</v>
+        <v>3842.516054681978</v>
       </c>
       <c r="P14" t="n">
-        <v>2289.150756663838</v>
+        <v>3842.516054681978</v>
       </c>
       <c r="Q14" t="n">
-        <v>2745.236236168022</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T14" t="n">
-        <v>2862.792571049924</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U14" t="n">
-        <v>2862.792571049924</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V14" t="n">
-        <v>2505.303156176174</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W14" t="n">
-        <v>2108.911806476521</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.191807644268</v>
+        <v>2715.578606541889</v>
       </c>
       <c r="Y14" t="n">
-        <v>1291.854537599158</v>
+        <v>2310.241336496779</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K15" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L15" t="n">
-        <v>448.8611593317958</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M15" t="n">
-        <v>1157.402320666652</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="N15" t="n">
-        <v>1157.402320666652</v>
+        <v>1006.415549575168</v>
       </c>
       <c r="O15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R15" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1140.436973945235</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C16" t="n">
-        <v>968.4644108241513</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D16" t="n">
-        <v>805.147637950922</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E16" t="n">
-        <v>638.9394321037755</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F16" t="n">
-        <v>467.077657878336</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G16" t="n">
-        <v>300.8206881725681</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0244196807225</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I16" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U16" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V16" t="n">
-        <v>2074.362011349241</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.509607521754</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X16" t="n">
-        <v>1556.945710967559</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y16" t="n">
-        <v>1330.602942657301</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1333.426142074841</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>906.5254120881407</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>483.2327912731409</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>57.25585142099849</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>57.25585142099849</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>57.25585142099849</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>57.25585142099849</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>57.25585142099849</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>765.7970127558548</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>1474.338174090711</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>2182.879335425568</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>2745.236236168022</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>2745.236236168022</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>2745.236236168022</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>2862.792571049924</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>2862.792571049924</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>2862.792571049924</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>2862.792571049924</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>2862.792571049924</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>2570.331775243733</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>2158.61177641148</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1753.274506366371</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>624.3793424524537</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>506.8734389699584</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>403.0334804852435</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>298.3315467581807</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>204.6857164410849</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>110.6319446586889</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>765.7970127558548</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1401.798005138729</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1401.798005138729</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1401.798005138729</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1865.943482001508</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1784.619234562763</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1642.739298860441</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1457.971102780078</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1252.997963919344</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1056.476586752561</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>892.999240519224</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>753.3063518725164</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.3857321367336</v>
+        <v>935.3163081599862</v>
       </c>
       <c r="C19" t="n">
-        <v>806.3857321367336</v>
+        <v>763.3437450389022</v>
       </c>
       <c r="D19" t="n">
-        <v>643.0689592635043</v>
+        <v>600.0269721656729</v>
       </c>
       <c r="E19" t="n">
-        <v>476.8607534163579</v>
+        <v>433.8187663185264</v>
       </c>
       <c r="F19" t="n">
-        <v>304.9989791909182</v>
+        <v>261.9569920930868</v>
       </c>
       <c r="G19" t="n">
-        <v>300.8206881725681</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0244196807225</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>57.25585142099849</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>114.7471796451565</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>341.2747808509937</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>695.9641021454145</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1087.149897115665</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1464.641407991701</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1820.069536671464</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2110.668748593365</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2237.668878834127</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2190.6302655213</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2020.495218040435</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2020.495218040435</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1740.310769540739</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V19" t="n">
-        <v>1740.310769540739</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.458365713252</v>
+        <v>1594.388941736505</v>
       </c>
       <c r="X19" t="n">
-        <v>1222.894469159057</v>
+        <v>1351.82504518231</v>
       </c>
       <c r="Y19" t="n">
-        <v>996.5517008487993</v>
+        <v>1125.482276872052</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,25 +5755,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>1446.844867123559</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1446.844867123559</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3918.135197142812</v>
+        <v>3416.699680338375</v>
       </c>
       <c r="C22" t="n">
-        <v>3746.162634021728</v>
+        <v>3244.727117217291</v>
       </c>
       <c r="D22" t="n">
-        <v>3582.845861148498</v>
+        <v>3244.727117217291</v>
       </c>
       <c r="E22" t="n">
-        <v>3416.637655301352</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="F22" t="n">
-        <v>3244.775881075912</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G22" t="n">
         <v>3078.518911370144</v>
@@ -5935,25 +5937,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S22" t="n">
-        <v>4945.000622810562</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T22" t="n">
-        <v>4945.000622810562</v>
+        <v>4912.520633634047</v>
       </c>
       <c r="U22" t="n">
-        <v>4852.060234546818</v>
+        <v>4632.336185134352</v>
       </c>
       <c r="V22" t="n">
-        <v>4852.060234546818</v>
+        <v>4350.62471774238</v>
       </c>
       <c r="W22" t="n">
-        <v>4577.207830719331</v>
+        <v>4075.772313914893</v>
       </c>
       <c r="X22" t="n">
-        <v>4334.643934165136</v>
+        <v>3833.208417360699</v>
       </c>
       <c r="Y22" t="n">
-        <v>4108.301165854878</v>
+        <v>3606.86564905044</v>
       </c>
     </row>
     <row r="23">
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>603.6894663516439</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="C25" t="n">
-        <v>603.6894663516439</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D25" t="n">
-        <v>440.3726934784146</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W25" t="n">
-        <v>1155.589460012876</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="X25" t="n">
-        <v>1020.198203373968</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.8554350637096</v>
+        <v>3845.931202281452</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
         <v>5115.135670291427</v>
@@ -6303,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3158.801708427964</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C28" t="n">
-        <v>2986.82914530688</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D28" t="n">
-        <v>2934.722642878299</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E28" t="n">
-        <v>2934.722642878299</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F28" t="n">
-        <v>2934.722642878299</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="29">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C30" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D30" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E30" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F30" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G30" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S30" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T30" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U30" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V30" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W30" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X30" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y30" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3519.102724620894</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>3347.13016149981</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>3183.81338862658</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>3183.81338862658</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F31" t="n">
-        <v>3011.951614401141</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="G31" t="n">
-        <v>3011.951614401141</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>4824.7577092045</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>4544.573260704805</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.861793312833</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>3988.009389485347</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>3745.445492931152</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>3519.102724620894</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3619.314716995755</v>
+        <v>3158.801708427964</v>
       </c>
       <c r="C34" t="n">
-        <v>3447.342153874671</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="D34" t="n">
-        <v>3284.025381001441</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="E34" t="n">
-        <v>3117.817175154295</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="F34" t="n">
-        <v>2945.955400928855</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I34" t="n">
         <v>2934.722642878299</v>
@@ -6880,28 +6882,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U34" t="n">
-        <v>4834.951221791732</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V34" t="n">
-        <v>4553.23975439976</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W34" t="n">
-        <v>4278.387350572273</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X34" t="n">
-        <v>4035.823454018078</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y34" t="n">
-        <v>3809.48068570782</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="35">
@@ -7014,19 +7016,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>374.0002026854196</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.931202281452</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>3845.931202281452</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>3845.931202281452</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3845.931202281452</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7177,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>941.9189991784958</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>769.9464360574118</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7363,19 +7365,19 @@
         <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.555503974472</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1875.844036582501</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.991632755014</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>1358.427736200819</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.084967890562</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623582</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O41" t="n">
-        <v>4935.721337874071</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="P41" t="n">
-        <v>4935.721337874071</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>669.4262044372838</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>551.9203009547886</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>448.0803424700736</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>343.3784087430108</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>249.7325784259149</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L42" t="n">
-        <v>939.1015214887346</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M42" t="n">
-        <v>939.1015214887346</v>
+        <v>270.5182276882986</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R42" t="n">
-        <v>1910.990343986338</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>1829.666096547593</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>1687.786160845271</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>1503.017964764908</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>1298.044825904174</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>1101.523448737391</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>938.0461025040541</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>798.3532138573465</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.9189991784958</v>
+        <v>727.7969995781174</v>
       </c>
       <c r="C43" t="n">
-        <v>769.9464360574118</v>
+        <v>688.3645182116694</v>
       </c>
       <c r="D43" t="n">
-        <v>606.6296631841825</v>
+        <v>525.0477453384401</v>
       </c>
       <c r="E43" t="n">
-        <v>440.421457337036</v>
+        <v>358.8395394912936</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>186.977765265854</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>186.977765265854</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058285</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302445</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1132.196759100495</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1509.688269976531</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1865.116398656294</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2155.715610578195</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2050.448563625566</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1807.109215851466</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.555503974472</v>
+        <v>1526.92476735177</v>
       </c>
       <c r="V43" t="n">
-        <v>1875.844036582501</v>
+        <v>1245.213299959799</v>
       </c>
       <c r="W43" t="n">
-        <v>1600.991632755014</v>
+        <v>970.3608961323123</v>
       </c>
       <c r="X43" t="n">
-        <v>1358.427736200819</v>
+        <v>727.7969995781174</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.084967890562</v>
+        <v>727.7969995781174</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2162.889386295992</v>
+        <v>2205.874042369921</v>
       </c>
       <c r="C44" t="n">
-        <v>1735.988656309292</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D44" t="n">
-        <v>1312.696035494292</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E44" t="n">
-        <v>886.7190956421497</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F44" t="n">
-        <v>461.5949138315499</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G44" t="n">
-        <v>57.25585142099849</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>419.859310237894</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>1128.40047157275</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>1128.40047157275</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.871477505911</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N44" t="n">
-        <v>1580.871477505911</v>
+        <v>4075.48317132356</v>
       </c>
       <c r="O44" t="n">
-        <v>1580.871477505911</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P44" t="n">
-        <v>2289.150756663838</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q44" t="n">
-        <v>2745.236236168022</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R44" t="n">
-        <v>2862.792571049924</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>2862.792571049924</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T44" t="n">
-        <v>2862.792571049924</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U44" t="n">
-        <v>2862.792571049924</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V44" t="n">
-        <v>2862.792571049924</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.792571049924</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X44" t="n">
-        <v>2582.737750587522</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y44" t="n">
-        <v>2582.737750587522</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>624.3793424524537</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>506.8734389699584</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>403.0334804852435</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>298.3315467581807</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
-        <v>204.6857164410849</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>110.6319446586889</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K45" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="L45" t="n">
-        <v>57.25585142099849</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="M45" t="n">
-        <v>765.7970127558548</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="N45" t="n">
-        <v>1474.338174090711</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="O45" t="n">
-        <v>1865.943482001508</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="P45" t="n">
-        <v>1865.943482001508</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
-        <v>1865.943482001508</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1784.619234562763</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1642.739298860441</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1457.971102780078</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1252.997963919344</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1056.476586752561</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>892.999240519224</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>753.3063518725164</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.3669938726493</v>
+        <v>808.6463718491814</v>
       </c>
       <c r="C46" t="n">
-        <v>630.3944307515653</v>
+        <v>636.6738087280974</v>
       </c>
       <c r="D46" t="n">
-        <v>467.077657878336</v>
+        <v>473.3570358548681</v>
       </c>
       <c r="E46" t="n">
-        <v>467.077657878336</v>
+        <v>307.1488300077216</v>
       </c>
       <c r="F46" t="n">
-        <v>467.077657878336</v>
+        <v>135.287055782282</v>
       </c>
       <c r="G46" t="n">
-        <v>300.8206881725681</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0244196807225</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I46" t="n">
-        <v>57.25585142099849</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
-        <v>114.7471796451565</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>341.2747808509937</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>695.9641021454145</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1087.149897115665</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>1464.641407991701</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>1820.069536671464</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2110.668748593365</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2237.668878834127</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2067.533831353262</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T46" t="n">
-        <v>2067.533831353262</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U46" t="n">
-        <v>1787.349382853566</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="V46" t="n">
-        <v>1505.637915461595</v>
+        <v>1742.571409253187</v>
       </c>
       <c r="W46" t="n">
-        <v>1461.439627449168</v>
+        <v>1467.7190054257</v>
       </c>
       <c r="X46" t="n">
-        <v>1218.875730894973</v>
+        <v>1225.155108871505</v>
       </c>
       <c r="Y46" t="n">
-        <v>992.5329625847151</v>
+        <v>998.8123405612471</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>751.4627435572904</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0831958927832</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>752.9777655969272</v>
+        <v>110.3411813754879</v>
       </c>
       <c r="O2" t="n">
-        <v>753.0891021185053</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>738.2132294767107</v>
+        <v>268.1828480767087</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8070,13 +8072,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>254.6167103319104</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8213,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>356.2795268629521</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>754.010185195104</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M5" t="n">
-        <v>753.1294056619129</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>753.0891021185053</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8295,25 +8297,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>418.6576975939414</v>
+        <v>268.7645418748069</v>
       </c>
       <c r="N6" t="n">
-        <v>737.0411709760227</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>738.8700324847033</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>751.4627435572904</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>359.0914959522089</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>753.0891021185053</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>753.0089771212694</v>
+        <v>560.7509129461121</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8535,19 +8537,19 @@
         <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
-        <v>738.2132294767107</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>537.9064195803219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>528.4187726313924</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>613.8327077236679</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>753.1294056619129</v>
+        <v>486.0354348703262</v>
       </c>
       <c r="N11" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8769,19 +8771,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>418.6576975939414</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>737.0411709760227</v>
+        <v>353.3848726586917</v>
       </c>
       <c r="O12" t="n">
-        <v>738.8700324847033</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8927,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>751.4627435572904</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>145.9214398217134</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>753.0891021185053</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>440.5564531324966</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>418.076003795843</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7949232748091</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>738.8700324847033</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9164,25 +9166,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>754.010185195104</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>753.1294056619129</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N17" t="n">
-        <v>752.9777655969272</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>605.4282328332504</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9249,10 +9251,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7949232748091</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>663.7682730447277</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9401,10 +9403,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>784.1890535317962</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>475.2939470053066</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9498,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9887,13 +9889,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9951,31 +9953,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>426.1551116948253</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>705.1634862205228</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>227.5743145228559</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10662,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10671,13 +10673,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
-        <v>475.3690562152009</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -11072,13 +11074,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>206.5024180439405</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.60750039798609</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11142,13 +11144,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>208.2574175650235</v>
       </c>
       <c r="N42" t="n">
-        <v>1003.048909524252</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>751.4627435572904</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>494.4726830339372</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>325.2461906519227</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7949232748091</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>737.0411709760227</v>
+        <v>1105.024507443985</v>
       </c>
       <c r="O45" t="n">
-        <v>418.7328068038355</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22550,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>378.1726898137015</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22604,10 +22606,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>261.5336177169016</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>40.36534422558756</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22756,10 +22758,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22787,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>342.6064085940728</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22799,10 +22801,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>47.11578330428219</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,22 +22837,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22945,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23027,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.453211478259561</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>20.10534931376213</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23072,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23227,19 +23229,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>6.759898196019265</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>240.0615018120539</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>14.66506312183718</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23464,7 +23466,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -23473,10 +23475,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
-        <v>6.759898196019037</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>35.08859862591902</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>299.4252620791152</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23546,10 +23548,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>102.891248354527</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.4578919005436</v>
+        <v>148.8949699152517</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>40.31706800555261</v>
       </c>
       <c r="U22" t="n">
-        <v>185.3716196335918</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>27.77629167419997</v>
       </c>
       <c r="X25" t="n">
-        <v>106.1009135161335</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>115.7088052046616</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>65.90162399931344</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283262</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.18544517283162</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>153.4739695386591</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>153.473969538659</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>313.1267859425246</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>131.2146809370897</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>281.988697356796</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3485265861518</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>116.9973198203197</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>228.3475746569094</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>514745.9630764876</v>
+        <v>449398.4684792875</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>514745.9630764876</v>
+        <v>449398.4684792875</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514745.9630764878</v>
+        <v>668173.8838946305</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>514745.9630764876</v>
+        <v>668173.8838946301</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514745.9630764876</v>
+        <v>668173.8838946302</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514745.9630764877</v>
+        <v>745486.3441157612</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>745486.3441157612</v>
+        <v>745486.3441157613</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>745486.3441157613</v>
+        <v>745486.3441157612</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>745486.3441157613</v>
+        <v>745486.3441157612</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>745486.3441157613</v>
+        <v>745486.3441157612</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745486.3441157613</v>
+        <v>668173.8838946305</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514745.9630764876</v>
+        <v>668173.8838946305</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>194043.3152283363</v>
+        <v>169412.1915076495</v>
       </c>
       <c r="C2" t="n">
-        <v>194043.3152283363</v>
+        <v>169412.1915076495</v>
       </c>
       <c r="D2" t="n">
-        <v>194043.3152283364</v>
+        <v>251874.1796428584</v>
       </c>
       <c r="E2" t="n">
-        <v>194043.3152283363</v>
+        <v>251874.1796428585</v>
       </c>
       <c r="F2" t="n">
-        <v>194043.3152283364</v>
+        <v>251874.1796428584</v>
       </c>
       <c r="G2" t="n">
-        <v>194043.3152283364</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="H2" t="n">
         <v>281015.2015687237</v>
       </c>
       <c r="I2" t="n">
+        <v>281015.2015687237</v>
+      </c>
+      <c r="J2" t="n">
         <v>281015.2015687236</v>
-      </c>
-      <c r="J2" t="n">
-        <v>281015.2015687237</v>
       </c>
       <c r="K2" t="n">
         <v>281015.2015687236</v>
       </c>
       <c r="L2" t="n">
-        <v>281015.2015687237</v>
+        <v>281015.2015687236</v>
       </c>
       <c r="M2" t="n">
         <v>281015.2015687236</v>
@@ -26350,10 +26352,10 @@
         <v>281015.2015687236</v>
       </c>
       <c r="O2" t="n">
-        <v>281015.2015687235</v>
+        <v>251874.1796428585</v>
       </c>
       <c r="P2" t="n">
-        <v>194043.3152283364</v>
+        <v>251874.1796428584</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239846.908696991</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
-        <v>151925.6098158127</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187258.1248649466</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30171.52196182407</v>
+        <v>26326.44296043128</v>
       </c>
       <c r="C4" t="n">
-        <v>30171.52196182407</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="D4" t="n">
-        <v>30171.52196182407</v>
+        <v>39199.2969392977</v>
       </c>
       <c r="E4" t="n">
-        <v>30171.52196182407</v>
+        <v>39199.2969392977</v>
       </c>
       <c r="F4" t="n">
-        <v>30171.52196182407</v>
+        <v>39199.2969392977</v>
       </c>
       <c r="G4" t="n">
-        <v>30171.52196182407</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
         <v>43748.40045389556</v>
@@ -26448,16 +26450,16 @@
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
-      <c r="N4" t="n">
-        <v>43748.40045389557</v>
-      </c>
       <c r="O4" t="n">
-        <v>43748.40045389558</v>
+        <v>39199.29693929769</v>
       </c>
       <c r="P4" t="n">
-        <v>30171.52196182407</v>
+        <v>39199.2969392977</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>77142.04707995884</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>77142.04707995884</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
-        <v>43514.44707995885</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>43514.44707995885</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-153117.1625104375</v>
+        <v>-110765.2359049471</v>
       </c>
       <c r="C6" t="n">
-        <v>86729.74618655344</v>
+        <v>75639.49750979012</v>
       </c>
       <c r="D6" t="n">
-        <v>86729.74618655347</v>
+        <v>-53073.07225817806</v>
       </c>
       <c r="E6" t="n">
-        <v>120357.3461865534</v>
+        <v>146395.892978902</v>
       </c>
       <c r="F6" t="n">
-        <v>120357.3461865535</v>
+        <v>146395.8929789019</v>
       </c>
       <c r="G6" t="n">
-        <v>120357.3461865535</v>
+        <v>107805.4083962563</v>
       </c>
       <c r="H6" t="n">
-        <v>7591.129110585738</v>
+        <v>159516.7389263984</v>
       </c>
       <c r="I6" t="n">
-        <v>159516.7389263983</v>
+        <v>159516.7389263984</v>
       </c>
       <c r="J6" t="n">
-        <v>-27741.38593854813</v>
+        <v>13983.06899158185</v>
       </c>
       <c r="K6" t="n">
-        <v>159516.7389263983</v>
+        <v>159516.7389263984</v>
       </c>
       <c r="L6" t="n">
-        <v>159516.7389263985</v>
+        <v>24394.70638215666</v>
       </c>
       <c r="M6" t="n">
         <v>159516.7389263983</v>
@@ -26558,10 +26560,10 @@
         <v>159516.7389263983</v>
       </c>
       <c r="O6" t="n">
-        <v>159516.7389263982</v>
+        <v>146395.892978902</v>
       </c>
       <c r="P6" t="n">
-        <v>120357.3461865535</v>
+        <v>146395.892978902</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
-        <v>715.6981427624811</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>715.6981427624811</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.698142762481</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
-        <v>563.0857748103757</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>201.7711534601603</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>715.6981427624811</v>
+        <v>73.0615585410419</v>
       </c>
       <c r="O2" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>715.6981427624811</v>
+        <v>245.6677613624791</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>232.8458691270817</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>320.5149260681428</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>715.6981427624811</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M5" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>715.6981427624811</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>395.5609170816134</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="N6" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>320.779453519586</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>715.6981427624811</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>715.433615311038</v>
+        <v>523.1755511358807</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>514.8096390679939</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>575.520665291045</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>715.6981427624811</v>
+        <v>448.6041719708944</v>
       </c>
       <c r="N11" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>715.6981427624811</v>
+        <v>332.04184444515</v>
       </c>
       <c r="O12" t="n">
-        <v>715.6981427624811</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>107.6093973890905</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>715.6981427624811</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>404.4317785278986</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>395.5609170816134</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>715.6981427624811</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.6981427624811</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>715.6981427624811</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>715.6981427624811</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N17" t="n">
-        <v>715.6981427624811</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>568.0372734772262</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35969,10 +35971,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>715.6981427624811</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>642.4252448311861</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.1971664929786</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36607,13 +36609,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>666.8514437878999</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37792,13 +37794,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>169.1114586879164</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>185.1606370526955</v>
       </c>
       <c r="N42" t="n">
-        <v>981.7058813107108</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>715.6981427624811</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>457.0414201345054</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>287.8552312958986</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>715.6981427624811</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>715.6981427624811</v>
+        <v>1083.681479230444</v>
       </c>
       <c r="O45" t="n">
-        <v>395.5609170816133</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>649489.9704557367</v>
+        <v>647336.7366514025</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11943472.88418848</v>
+        <v>11943472.88418847</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2610015.581521715</v>
+        <v>2610015.581521717</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7741987.377597327</v>
+        <v>7741987.377597326</v>
       </c>
     </row>
     <row r="11">
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.0691811270283</v>
       </c>
       <c r="V2" t="n">
-        <v>92.38090300811142</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>124.2290557831226</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.44420510686474</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>347.6088837131874</v>
       </c>
       <c r="D5" t="n">
-        <v>76.45328601277687</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>51.58543740429392</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1141,16 +1141,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>419.2639589753614</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>102.391657041176</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>212.4536172933338</v>
       </c>
       <c r="W10" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.65855806375382</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>164.9329176928226</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>116.2748171257523</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1615,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>110.4036298967404</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>100.8704097073306</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2007,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>15.69943009345852</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>200.5888862908064</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2538,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>156.3950745845505</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0673923170415</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3742,10 +3742,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>109.5049367443083</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>219.7584718455408</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3796,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>39.03815655278349</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>140.6430253300368</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>172.3890952258947</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4140,16 +4140,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>47.59708018839049</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4330,28 +4330,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4363,13 +4363,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>2077.366625061338</v>
       </c>
       <c r="V2" t="n">
-        <v>2131.59720901984</v>
+        <v>1719.877210187587</v>
       </c>
       <c r="W2" t="n">
-        <v>2131.59720901984</v>
+        <v>1719.877210187587</v>
       </c>
       <c r="X2" t="n">
         <v>1719.877210187587</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>966.8891568663047</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>1210.100240615159</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1210.100240615159</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N3" t="n">
-        <v>1210.100240615159</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O3" t="n">
-        <v>1760.765775599597</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599597</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.750951392604</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C4" t="n">
-        <v>313.77838827152</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D4" t="n">
-        <v>313.77838827152</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E4" t="n">
-        <v>313.77838827152</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F4" t="n">
-        <v>313.77838827152</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
         <v>44.49822504924753</v>
@@ -4515,25 +4515,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.823584969123</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X4" t="n">
-        <v>902.2596884149276</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.9169201046697</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1399.725618125737</v>
+        <v>395.6183096080227</v>
       </c>
       <c r="C5" t="n">
-        <v>972.8248881390371</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="D5" t="n">
-        <v>895.5993467119897</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E5" t="n">
-        <v>469.6224068598473</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F5" t="n">
         <v>44.49822504924753</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>1123.5801824935</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1674.245717477938</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462377</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.573982417267</v>
+        <v>395.6183096080227</v>
       </c>
     </row>
     <row r="6">
@@ -4649,16 +4649,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M6" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="N6" t="n">
         <v>595.1637600336857</v>
-      </c>
-      <c r="L6" t="n">
-        <v>595.1637600336857</v>
-      </c>
-      <c r="M6" t="n">
-        <v>838.3748437825398</v>
-      </c>
-      <c r="N6" t="n">
-        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
         <v>838.3748437825398</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782725</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782725</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>96.60472747782725</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.02567807839</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C8" t="n">
-        <v>1359.124948091691</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D8" t="n">
-        <v>935.8323272766909</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E8" t="n">
-        <v>512.3333788167298</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F8" t="n">
-        <v>87.20919700613</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G8" t="n">
-        <v>87.20919700613</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H8" t="n">
         <v>87.20919700613</v>
@@ -4804,28 +4804,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K8" t="n">
-        <v>87.20919700613</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L8" t="n">
-        <v>1016.834244625407</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="M8" t="n">
-        <v>2021.120346044465</v>
+        <v>2169.607065217583</v>
       </c>
       <c r="N8" t="n">
-        <v>2997.371404531166</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="O8" t="n">
-        <v>3842.516054681978</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P8" t="n">
-        <v>4360.4598503065</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q8" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R8" t="n">
         <v>4360.4598503065</v>
@@ -4843,13 +4843,13 @@
         <v>3419.322660946936</v>
       </c>
       <c r="W8" t="n">
-        <v>3022.931311247283</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="X8" t="n">
-        <v>2611.21131241503</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="Y8" t="n">
-        <v>2205.874042369921</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>87.20919700613</v>
       </c>
       <c r="K9" t="n">
-        <v>677.6941235744696</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L9" t="n">
-        <v>677.6941235744696</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M9" t="n">
-        <v>677.6941235744696</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N9" t="n">
-        <v>1179.699110548142</v>
+        <v>87.20919700613</v>
       </c>
       <c r="O9" t="n">
-        <v>1179.699110548142</v>
+        <v>976.6904750176017</v>
       </c>
       <c r="P9" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q9" t="n">
         <v>1895.89682758664</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1170.390319530367</v>
+        <v>425.4387298329818</v>
       </c>
       <c r="C10" t="n">
-        <v>998.4177564092828</v>
+        <v>253.4661667118979</v>
       </c>
       <c r="D10" t="n">
-        <v>835.1009835360535</v>
+        <v>253.4661667118979</v>
       </c>
       <c r="E10" t="n">
-        <v>668.892777688907</v>
+        <v>253.4661667118979</v>
       </c>
       <c r="F10" t="n">
-        <v>497.0310034634675</v>
+        <v>253.4661667118979</v>
       </c>
       <c r="G10" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H10" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I10" t="n">
         <v>87.20919700613</v>
@@ -4989,25 +4989,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2267.622224419258</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T10" t="n">
-        <v>2267.622224419258</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U10" t="n">
-        <v>1987.437775919562</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V10" t="n">
-        <v>1987.437775919562</v>
+        <v>1359.363767236987</v>
       </c>
       <c r="W10" t="n">
-        <v>1829.462953106885</v>
+        <v>1084.5113634095</v>
       </c>
       <c r="X10" t="n">
-        <v>1586.89905655269</v>
+        <v>841.9474668553055</v>
       </c>
       <c r="Y10" t="n">
-        <v>1360.556288242432</v>
+        <v>615.6046985450475</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1800.838873150952</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="C11" t="n">
-        <v>1800.838873150952</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D11" t="n">
-        <v>1377.546252335952</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E11" t="n">
-        <v>951.56931248381</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F11" t="n">
-        <v>526.4451306732102</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G11" t="n">
-        <v>122.1060682626588</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H11" t="n">
         <v>122.1060682626588</v>
@@ -5041,52 +5041,52 @@
         <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>449.8126558230255</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K11" t="n">
-        <v>1165.320963798525</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L11" t="n">
-        <v>2094.946011417801</v>
+        <v>1016.834244625407</v>
       </c>
       <c r="M11" t="n">
-        <v>2539.064141668987</v>
+        <v>2021.120346044465</v>
       </c>
       <c r="N11" t="n">
-        <v>3515.315200155688</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O11" t="n">
-        <v>4360.4598503065</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P11" t="n">
-        <v>4360.4598503065</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q11" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R11" t="n">
         <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>4270.905751252203</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T11" t="n">
-        <v>4049.980180296836</v>
+        <v>4089.493649419213</v>
       </c>
       <c r="U11" t="n">
-        <v>3791.625270893248</v>
+        <v>4089.493649419213</v>
       </c>
       <c r="V11" t="n">
-        <v>3434.135856019498</v>
+        <v>3732.004234545463</v>
       </c>
       <c r="W11" t="n">
-        <v>3037.744506319844</v>
+        <v>3335.61288484581</v>
       </c>
       <c r="X11" t="n">
-        <v>2626.024507487592</v>
+        <v>2923.892886013557</v>
       </c>
       <c r="Y11" t="n">
-        <v>2220.687237442482</v>
+        <v>2518.555615968447</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>87.20919700613</v>
       </c>
       <c r="K12" t="n">
-        <v>677.6941235744696</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L12" t="n">
-        <v>677.6941235744696</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M12" t="n">
-        <v>677.6941235744696</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N12" t="n">
-        <v>1006.415549575168</v>
+        <v>87.20919700613</v>
       </c>
       <c r="O12" t="n">
-        <v>1895.89682758664</v>
+        <v>976.6904750176017</v>
       </c>
       <c r="P12" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q12" t="n">
         <v>1895.89682758664</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C13" t="n">
-        <v>998.4177564092828</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D13" t="n">
-        <v>835.1009835360535</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E13" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F13" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
         <v>87.20919700613</v>
@@ -5226,25 +5226,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2267.622224419258</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.622224419258</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U13" t="n">
-        <v>2267.622224419258</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V13" t="n">
-        <v>2104.315356934372</v>
+        <v>1292.251913272626</v>
       </c>
       <c r="W13" t="n">
-        <v>1829.462953106885</v>
+        <v>1017.399509445139</v>
       </c>
       <c r="X13" t="n">
-        <v>1586.89905655269</v>
+        <v>774.8356128909442</v>
       </c>
       <c r="Y13" t="n">
-        <v>1360.556288242432</v>
+        <v>548.4928445806862</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1890.392972205249</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C14" t="n">
-        <v>1463.492242218549</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D14" t="n">
-        <v>1040.19962140355</v>
+        <v>935.8323272766909</v>
       </c>
       <c r="E14" t="n">
-        <v>614.2226815514072</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="F14" t="n">
-        <v>189.0984997408074</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G14" t="n">
-        <v>87.20919700613</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H14" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I14" t="n">
         <v>87.20919700613</v>
@@ -5281,22 +5281,22 @@
         <v>87.20919700613</v>
       </c>
       <c r="K14" t="n">
-        <v>87.20919700613</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L14" t="n">
-        <v>1016.834244625407</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M14" t="n">
-        <v>2021.120346044465</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="N14" t="n">
-        <v>2997.371404531166</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O14" t="n">
-        <v>3842.516054681978</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P14" t="n">
-        <v>3842.516054681978</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q14" t="n">
         <v>4242.903515424598</v>
@@ -5305,25 +5305,25 @@
         <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>4360.4598503065</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>4139.534279351133</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>3881.179369947545</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V14" t="n">
-        <v>3523.689955073794</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W14" t="n">
-        <v>3127.298605374142</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X14" t="n">
-        <v>2715.578606541889</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y14" t="n">
-        <v>2310.241336496779</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J15" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K15" t="n">
-        <v>87.20919700613</v>
+        <v>375.7648127478153</v>
       </c>
       <c r="L15" t="n">
-        <v>87.20919700613</v>
+        <v>375.7648127478153</v>
       </c>
       <c r="M15" t="n">
-        <v>1006.415549575168</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="N15" t="n">
-        <v>1006.415549575168</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="O15" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="P15" t="n">
-        <v>1895.89682758664</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q15" t="n">
         <v>1895.89682758664</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C16" t="n">
-        <v>998.4177564092828</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D16" t="n">
-        <v>835.1009835360535</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E16" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F16" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G16" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
         <v>87.20919700613</v>
@@ -5463,25 +5463,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.622224419258</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U16" t="n">
-        <v>2267.622224419258</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V16" t="n">
-        <v>2104.315356934372</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W16" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X16" t="n">
-        <v>1586.89905655269</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y16" t="n">
-        <v>1360.556288242432</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>456.2068044646703</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5545,22 +5545,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1836.029442462118</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>935.3163081599862</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>763.3437450389022</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>600.0269721656729</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>433.8187663185264</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>261.9569920930868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1869.241345563992</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1594.388941736505</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1351.82504518231</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1125.482276872052</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3416.699680338375</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3244.727117217291</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3244.727117217291</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>3078.518911370144</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>4912.520633634047</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4632.336185134352</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4350.62471774238</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>4075.772313914893</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3833.208417360699</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3606.86564905044</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6068,25 +6068,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3845.931202281452</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723635</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.43821322394</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4092.726745831969</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>3845.931202281452</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>3845.931202281452</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>3845.931202281452</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6308,25 +6308,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>2002.531292319261</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818557</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291427</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291427</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>154.4092158344085</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6782,25 +6782,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L33" t="n">
-        <v>305.3113489363686</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3158.801708427964</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3034.491211138023</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3034.491211138023</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3034.491211138023</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7019,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>3306.448039710919</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M39" t="n">
-        <v>4025.820723818557</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1786.02567807839</v>
+        <v>2449.717857527087</v>
       </c>
       <c r="C41" t="n">
-        <v>1675.414630861917</v>
+        <v>2022.817127540387</v>
       </c>
       <c r="D41" t="n">
-        <v>1675.414630861917</v>
+        <v>1599.524506725388</v>
       </c>
       <c r="E41" t="n">
-        <v>1249.437691009775</v>
+        <v>1173.547566873245</v>
       </c>
       <c r="F41" t="n">
-        <v>824.3135091991753</v>
+        <v>748.4233850626454</v>
       </c>
       <c r="G41" t="n">
-        <v>419.9744467886239</v>
+        <v>344.084322652094</v>
       </c>
       <c r="H41" t="n">
         <v>122.1060682626588</v>
@@ -7420,16 +7420,16 @@
         <v>2094.946011417801</v>
       </c>
       <c r="M41" t="n">
-        <v>3099.232112836859</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="N41" t="n">
-        <v>4075.48317132356</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O41" t="n">
-        <v>4242.903515424598</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P41" t="n">
-        <v>4242.903515424598</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q41" t="n">
         <v>4242.903515424598</v>
@@ -7444,19 +7444,19 @@
         <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>3776.812075820686</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="V41" t="n">
-        <v>3419.322660946936</v>
+        <v>3677.677570350523</v>
       </c>
       <c r="W41" t="n">
-        <v>3022.931311247283</v>
+        <v>3281.28622065087</v>
       </c>
       <c r="X41" t="n">
-        <v>2611.21131241503</v>
+        <v>2869.566221818617</v>
       </c>
       <c r="Y41" t="n">
-        <v>2205.874042369921</v>
+        <v>2869.566221818617</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>87.20919700613</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L42" t="n">
-        <v>87.20919700613</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="M42" t="n">
-        <v>270.5182276882986</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="N42" t="n">
-        <v>1349.732040639157</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="O42" t="n">
-        <v>1349.732040639157</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P42" t="n">
-        <v>1349.732040639157</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q42" t="n">
-        <v>1813.877517501937</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R42" t="n">
         <v>1895.89682758664</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>727.7969995781174</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C43" t="n">
-        <v>688.3645182116694</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D43" t="n">
-        <v>525.0477453384401</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E43" t="n">
-        <v>358.8395394912936</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F43" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
         <v>87.20919700613</v>
@@ -7593,28 +7593,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2050.448563625566</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T43" t="n">
-        <v>1807.109215851466</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U43" t="n">
-        <v>1526.92476735177</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V43" t="n">
-        <v>1245.213299959799</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W43" t="n">
-        <v>970.3608961323123</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X43" t="n">
-        <v>727.7969995781174</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y43" t="n">
-        <v>727.7969995781174</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2205.874042369921</v>
+        <v>2401.870002355728</v>
       </c>
       <c r="C44" t="n">
-        <v>2063.810380420388</v>
+        <v>1974.969272369028</v>
       </c>
       <c r="D44" t="n">
-        <v>1640.517759605389</v>
+        <v>1551.676651554028</v>
       </c>
       <c r="E44" t="n">
-        <v>1214.540819753246</v>
+        <v>1125.699711701885</v>
       </c>
       <c r="F44" t="n">
-        <v>789.4166379426465</v>
+        <v>700.5755298912857</v>
       </c>
       <c r="G44" t="n">
-        <v>385.0775755320952</v>
+        <v>296.2364674807343</v>
       </c>
       <c r="H44" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I44" t="n">
         <v>87.20919700613</v>
@@ -7657,19 +7657,19 @@
         <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>3099.232112836859</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="N44" t="n">
-        <v>4075.48317132356</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O44" t="n">
-        <v>4360.4598503065</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P44" t="n">
-        <v>4360.4598503065</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q44" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R44" t="n">
         <v>4360.4598503065</v>
@@ -7681,19 +7681,19 @@
         <v>4035.166985224274</v>
       </c>
       <c r="U44" t="n">
-        <v>3776.812075820686</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="V44" t="n">
-        <v>3419.322660946936</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="W44" t="n">
-        <v>3022.931311247283</v>
+        <v>3638.77563552462</v>
       </c>
       <c r="X44" t="n">
-        <v>2611.21131241503</v>
+        <v>3227.055636692367</v>
       </c>
       <c r="Y44" t="n">
-        <v>2205.874042369921</v>
+        <v>2821.718366647258</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>358.9066862857211</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>358.9066862857211</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9066862857211</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9066862857211</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="N45" t="n">
-        <v>1431.75135072386</v>
+        <v>677.6941235744696</v>
       </c>
       <c r="O45" t="n">
-        <v>1431.75135072386</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P45" t="n">
         <v>1431.75135072386</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.6463718491814</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C46" t="n">
-        <v>636.6738087280974</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3570358548681</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E46" t="n">
-        <v>307.1488300077216</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F46" t="n">
-        <v>135.287055782282</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G46" t="n">
         <v>87.20919700613</v>
@@ -7833,25 +7833,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.282876645158</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U46" t="n">
-        <v>2024.282876645158</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.571409253187</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W46" t="n">
-        <v>1467.7190054257</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.155108871505</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.8123405612471</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>110.3411813754879</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>268.1828480767087</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748069</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,19 +8297,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748069</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>268.8396510847011</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>1023.391803124043</v>
+        <v>955.3924425767729</v>
       </c>
       <c r="O8" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>560.7509129461121</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8543,16 +8543,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>528.4187726313924</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P9" t="n">
-        <v>745.2028786174529</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>486.0354348703262</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>251.6975628013244</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>353.3848726586917</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8929,25 +8929,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>543.3923036534044</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>440.5564531324966</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>306.3476911866398</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>386.8988393430025</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9248,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>97.48892355252579</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9485,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>475.2939470053066</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>722.914001092021</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
@@ -10442,16 +10442,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>177.126183636338</v>
       </c>
       <c r="O41" t="n">
-        <v>206.5024180439405</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11141,28 +11141,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>208.2574175650235</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1111.457990790167</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>177.126183636338</v>
       </c>
       <c r="O44" t="n">
-        <v>325.2461906519227</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1105.024507443985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -22603,16 +22603,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>109.7021791825235</v>
       </c>
       <c r="V2" t="n">
-        <v>261.5336177169016</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22716,13 +22716,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.36534422558756</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22755,7 +22755,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919175</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>75.02283897364543</v>
       </c>
       <c r="D5" t="n">
-        <v>342.6064085940728</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22840,16 +22840,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22950,10 +22950,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -22962,7 +22962,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>47.18544517283286</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23029,16 +23029,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.453211478259561</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>290.0357791614805</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,22 +23184,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,19 +23229,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>66.44073542471756</v>
       </c>
       <c r="W10" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.66506312183718</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>53.78339755299058</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>71.98949189919264</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>311.3135405568806</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>299.4252620791152</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>148.8949699152517</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23940,16 +23940,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>40.31706800555261</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>115.7088052046616</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>47.18544517283262</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>47.18544517283162</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,7 +25086,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>313.1267859425246</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>75.13122289516468</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>131.2146809370897</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>281.988697356796</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>122.5005995148108</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>116.9973198203197</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26073,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>668173.8838946305</v>
+        <v>668173.8838946304</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668173.8838946301</v>
+        <v>668173.8838946302</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>668173.8838946302</v>
+        <v>668173.8838946304</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>745486.3441157613</v>
+        <v>745486.3441157612</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>745486.3441157613</v>
+        <v>745486.3441157612</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>668173.8838946305</v>
+        <v>668173.8838946302</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>668173.8838946305</v>
+        <v>668173.8838946302</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>169412.1915076495</v>
       </c>
       <c r="D2" t="n">
-        <v>251874.1796428584</v>
+        <v>251874.1796428585</v>
       </c>
       <c r="E2" t="n">
         <v>251874.1796428585</v>
       </c>
       <c r="F2" t="n">
-        <v>251874.1796428584</v>
+        <v>251874.1796428585</v>
       </c>
       <c r="G2" t="n">
         <v>281015.2015687237</v>
@@ -26337,16 +26337,16 @@
         <v>281015.2015687237</v>
       </c>
       <c r="J2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="K2" t="n">
         <v>281015.2015687236</v>
       </c>
       <c r="L2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="M2" t="n">
-        <v>281015.2015687236</v>
+        <v>281015.2015687237</v>
       </c>
       <c r="N2" t="n">
         <v>281015.2015687236</v>
@@ -26355,7 +26355,7 @@
         <v>251874.1796428585</v>
       </c>
       <c r="P2" t="n">
-        <v>251874.1796428584</v>
+        <v>251874.1796428585</v>
       </c>
     </row>
     <row r="3">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26326.44296043128</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="C4" t="n">
         <v>26326.44296043127</v>
@@ -26435,13 +26435,13 @@
         <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26450,13 +26450,13 @@
         <v>43748.40045389556</v>
       </c>
       <c r="M4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>39199.29693929769</v>
+        <v>39199.2969392977</v>
       </c>
       <c r="P4" t="n">
         <v>39199.2969392977</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110765.2359049471</v>
+        <v>-111374.2816174368</v>
       </c>
       <c r="C6" t="n">
-        <v>75639.49750979012</v>
+        <v>75030.45179730048</v>
       </c>
       <c r="D6" t="n">
-        <v>-53073.07225817806</v>
+        <v>-53269.80802999155</v>
       </c>
       <c r="E6" t="n">
-        <v>146395.892978902</v>
+        <v>146199.1572070884</v>
       </c>
       <c r="F6" t="n">
-        <v>146395.8929789019</v>
+        <v>146199.1572070884</v>
       </c>
       <c r="G6" t="n">
-        <v>107805.4083962563</v>
+        <v>107754.377734072</v>
       </c>
       <c r="H6" t="n">
-        <v>159516.7389263984</v>
+        <v>159465.7082642142</v>
       </c>
       <c r="I6" t="n">
-        <v>159516.7389263984</v>
+        <v>159465.7082642141</v>
       </c>
       <c r="J6" t="n">
-        <v>13983.06899158185</v>
+        <v>13932.0383293976</v>
       </c>
       <c r="K6" t="n">
-        <v>159516.7389263984</v>
+        <v>159465.708264214</v>
       </c>
       <c r="L6" t="n">
-        <v>24394.70638215666</v>
+        <v>24343.67571997242</v>
       </c>
       <c r="M6" t="n">
-        <v>159516.7389263983</v>
+        <v>159465.7082642141</v>
       </c>
       <c r="N6" t="n">
-        <v>159516.7389263983</v>
+        <v>159465.708264214</v>
       </c>
       <c r="O6" t="n">
-        <v>146395.892978902</v>
+        <v>146199.1572070884</v>
       </c>
       <c r="P6" t="n">
-        <v>146395.892978902</v>
+        <v>146199.1572070884</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>73.0615585410419</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
-        <v>245.6677613624791</v>
-      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>245.6677613624789</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>986.1121802895968</v>
+        <v>918.1128197423268</v>
       </c>
       <c r="O8" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>523.1755511358807</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P9" t="n">
-        <v>723.4320374126243</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>448.6041719708944</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>214.4179399668784</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>506.1126808189584</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.4317785278986</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>283.9484573533065</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>357.478879857416</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>452.1971664929786</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>699.7421113697987</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>139.846560801892</v>
       </c>
       <c r="O41" t="n">
-        <v>169.1114586879164</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>185.1606370526955</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1090.114962576625</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>139.846560801892</v>
       </c>
       <c r="O44" t="n">
-        <v>287.8552312958986</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1083.681479230444</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
